--- a/src/main/webapp/excel/jianli.xlsx
+++ b/src/main/webapp/excel/jianli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="8160"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>简历表id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -43,9 +40,6 @@
     <t>住址</t>
   </si>
   <si>
-    <t>头像</t>
-  </si>
-  <si>
     <t>技能证书</t>
   </si>
   <si>
@@ -68,57 +62,6 @@
   </si>
   <si>
     <t>社会经历内容</t>
-  </si>
-  <si>
-    <t>22q</t>
-  </si>
-  <si>
-    <t>23w</t>
-  </si>
-  <si>
-    <t>24e</t>
-  </si>
-  <si>
-    <t>25r</t>
-  </si>
-  <si>
-    <t>26q</t>
-  </si>
-  <si>
-    <t>27q</t>
-  </si>
-  <si>
-    <t>28q</t>
-  </si>
-  <si>
-    <t>29q</t>
-  </si>
-  <si>
-    <t>21q0</t>
-  </si>
-  <si>
-    <t>211q</t>
-  </si>
-  <si>
-    <t>2q12</t>
-  </si>
-  <si>
-    <t>213qq</t>
-  </si>
-  <si>
-    <t>214q</t>
-  </si>
-  <si>
-    <t>215q</t>
-  </si>
-  <si>
-    <t>216q</t>
-  </si>
-  <si>
-    <t>217q</t>
-  </si>
-  <si>
-    <t>21q8</t>
   </si>
 </sst>
 </file>
@@ -140,6 +83,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -155,6 +113,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -163,6 +128,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -188,47 +175,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -254,31 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +236,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,6 +284,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,6 +344,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,78 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,48 +417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +427,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,15 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,30 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +501,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -584,6 +518,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,138 +547,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,130 +1003,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:P$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="10" max="10" width="6.375" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="11.75" customWidth="1"/>
+    <col min="1" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
